--- a/biology/Zoologie/Colobe_noir/Colobe_noir.xlsx
+++ b/biology/Zoologie/Colobe_noir/Colobe_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Colobe noir est un nom vernaculaire ambigu en français, pouvant désigner deux espèces différentes de primates de la famille des Cercopithecidae. Ces deux colobes étaient auparavant regroupés dans une seule espèce Colobus polykomos :
-Colobus polykomos[1],[2]
-Colobus satanas[1]</t>
+Colobus polykomos,
+Colobus satanas</t>
         </is>
       </c>
     </row>
